--- a/ConfigFiles/Config_Africa.xlsx
+++ b/ConfigFiles/Config_Africa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\Dispa-SET\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD8E785-F3B4-4CBD-A07E-5069FD93D76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EFA070-E239-4E40-8B0D-559650E55B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,13 +718,13 @@
     <t>ARES_APP/Database/FuelPrices/PEA/FP_JRC_2018.csv</t>
   </si>
   <si>
-    <t>Database/ZonalData/Capitals.csv</t>
-  </si>
-  <si>
     <t>SCSP</t>
   </si>
   <si>
     <t>Simulations/simulation_Africa_2018</t>
+  </si>
+  <si>
+    <t>Database/ZonalData/Capitals_Africa.csv</t>
   </si>
 </sst>
 </file>
@@ -1457,8 +1457,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1904,70 +1904,22 @@
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="C96" s="1"/>
-    </row>
+    <row r="81" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
@@ -2280,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>61</v>
@@ -3763,7 +3715,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B321" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C321" s="21" t="b">
         <v>1</v>
@@ -4794,7 +4746,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="20" t="b">
         <v>0</v>
